--- a/data/pca/factorExposure/factorExposure_2012-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-18.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01657965788882141</v>
+        <v>-0.01679522949039076</v>
       </c>
       <c r="C2">
-        <v>0.03547805169319582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02933397846678808</v>
+      </c>
+      <c r="D2">
+        <v>-0.002793747360385553</v>
+      </c>
+      <c r="E2">
+        <v>0.007582697679635714</v>
+      </c>
+      <c r="F2">
+        <v>-0.01068082177415645</v>
+      </c>
+      <c r="G2">
+        <v>-0.002461636313532855</v>
+      </c>
+      <c r="H2">
+        <v>-0.05319819497355736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07555649666566126</v>
+        <v>-0.08780414128682835</v>
       </c>
       <c r="C4">
-        <v>0.05509119765342421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03807290753160816</v>
+      </c>
+      <c r="D4">
+        <v>-0.06830831414334212</v>
+      </c>
+      <c r="E4">
+        <v>0.01169516391293288</v>
+      </c>
+      <c r="F4">
+        <v>-0.03076587060430248</v>
+      </c>
+      <c r="G4">
+        <v>-0.008202932576825937</v>
+      </c>
+      <c r="H4">
+        <v>0.04499584156996516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1065173233274442</v>
+        <v>-0.118679018695224</v>
       </c>
       <c r="C6">
-        <v>0.05495125880948556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03221492779767848</v>
+      </c>
+      <c r="D6">
+        <v>-0.01156703382352331</v>
+      </c>
+      <c r="E6">
+        <v>-0.01662840940655922</v>
+      </c>
+      <c r="F6">
+        <v>-0.05965698219056798</v>
+      </c>
+      <c r="G6">
+        <v>-0.02097391135651602</v>
+      </c>
+      <c r="H6">
+        <v>-0.08281893991509352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05002436897353393</v>
+        <v>-0.06409550785177549</v>
       </c>
       <c r="C7">
-        <v>0.02799925137241713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01933740375208188</v>
+      </c>
+      <c r="D7">
+        <v>-0.0456272463197723</v>
+      </c>
+      <c r="E7">
+        <v>0.02939435799139846</v>
+      </c>
+      <c r="F7">
+        <v>-0.04310076012242026</v>
+      </c>
+      <c r="G7">
+        <v>0.03989204706428647</v>
+      </c>
+      <c r="H7">
+        <v>0.02425800607629725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03587618031455372</v>
+        <v>-0.04015239284294667</v>
       </c>
       <c r="C8">
-        <v>0.0111908912603438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007193316373677773</v>
+      </c>
+      <c r="D8">
+        <v>-0.02863222198299259</v>
+      </c>
+      <c r="E8">
+        <v>0.02481613410392849</v>
+      </c>
+      <c r="F8">
+        <v>-0.04579383026918009</v>
+      </c>
+      <c r="G8">
+        <v>-0.04210033092183609</v>
+      </c>
+      <c r="H8">
+        <v>0.005050731380127351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06842166814193587</v>
+        <v>-0.07858074399876834</v>
       </c>
       <c r="C9">
-        <v>0.04518915821830544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02868789473099957</v>
+      </c>
+      <c r="D9">
+        <v>-0.06291372889962835</v>
+      </c>
+      <c r="E9">
+        <v>0.03081621288869501</v>
+      </c>
+      <c r="F9">
+        <v>-0.03830278533396314</v>
+      </c>
+      <c r="G9">
+        <v>-0.01109439259742335</v>
+      </c>
+      <c r="H9">
+        <v>0.05432926066954826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02863696830472228</v>
+        <v>-0.03598477102584526</v>
       </c>
       <c r="C10">
-        <v>0.03403267759229457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04274885947002802</v>
+      </c>
+      <c r="D10">
+        <v>0.1723785681687488</v>
+      </c>
+      <c r="E10">
+        <v>0.04535561365969265</v>
+      </c>
+      <c r="F10">
+        <v>-0.05073545971031147</v>
+      </c>
+      <c r="G10">
+        <v>0.04045478757919761</v>
+      </c>
+      <c r="H10">
+        <v>-0.03703877220034144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07129180448157001</v>
+        <v>-0.07626640628207587</v>
       </c>
       <c r="C11">
-        <v>0.04655745538014858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02578560136720001</v>
+      </c>
+      <c r="D11">
+        <v>-0.06180715025984118</v>
+      </c>
+      <c r="E11">
+        <v>-0.01002211260901278</v>
+      </c>
+      <c r="F11">
+        <v>-0.02393854743412171</v>
+      </c>
+      <c r="G11">
+        <v>-0.00115979002573127</v>
+      </c>
+      <c r="H11">
+        <v>0.09545232150031063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05740074890494942</v>
+        <v>-0.06570196775304291</v>
       </c>
       <c r="C12">
-        <v>0.05022297329478726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03418750565389158</v>
+      </c>
+      <c r="D12">
+        <v>-0.04962765930708771</v>
+      </c>
+      <c r="E12">
+        <v>0.009909006587387794</v>
+      </c>
+      <c r="F12">
+        <v>-0.02001861957179646</v>
+      </c>
+      <c r="G12">
+        <v>-0.003061649302792245</v>
+      </c>
+      <c r="H12">
+        <v>0.05523396166433439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06104216956771907</v>
+        <v>-0.06534124875133444</v>
       </c>
       <c r="C13">
-        <v>0.04178638059414488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02491654328434227</v>
+      </c>
+      <c r="D13">
+        <v>-0.04277203232809699</v>
+      </c>
+      <c r="E13">
+        <v>0.0107499529931626</v>
+      </c>
+      <c r="F13">
+        <v>-0.006407749265509732</v>
+      </c>
+      <c r="G13">
+        <v>-0.001850617826294001</v>
+      </c>
+      <c r="H13">
+        <v>0.05561471193091571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03277776966977199</v>
+        <v>-0.04033674962226643</v>
       </c>
       <c r="C14">
-        <v>0.03079190463880333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02657182859255611</v>
+      </c>
+      <c r="D14">
+        <v>-0.003456410572998804</v>
+      </c>
+      <c r="E14">
+        <v>0.02602008539815556</v>
+      </c>
+      <c r="F14">
+        <v>-0.01869814222106866</v>
+      </c>
+      <c r="G14">
+        <v>-0.01791701909803696</v>
+      </c>
+      <c r="H14">
+        <v>0.05356097858559201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03913315860464117</v>
+        <v>-0.03957855477904407</v>
       </c>
       <c r="C15">
-        <v>0.01148530846333061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003176465356436199</v>
+      </c>
+      <c r="D15">
+        <v>-0.005452903040853929</v>
+      </c>
+      <c r="E15">
+        <v>0.04559227923884038</v>
+      </c>
+      <c r="F15">
+        <v>-0.001265090091389481</v>
+      </c>
+      <c r="G15">
+        <v>-0.02612980049571782</v>
+      </c>
+      <c r="H15">
+        <v>0.03956532213056287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06077221998106052</v>
+        <v>-0.06977735395173257</v>
       </c>
       <c r="C16">
-        <v>0.04238719470763536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02663980129347104</v>
+      </c>
+      <c r="D16">
+        <v>-0.06251114814281331</v>
+      </c>
+      <c r="E16">
+        <v>0.002548369248309222</v>
+      </c>
+      <c r="F16">
+        <v>-0.02405637858487484</v>
+      </c>
+      <c r="G16">
+        <v>0.001434661556740714</v>
+      </c>
+      <c r="H16">
+        <v>0.06011285295994451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0645814406544153</v>
+        <v>-0.06323487117973915</v>
       </c>
       <c r="C20">
-        <v>0.03266567568417968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01328894523204566</v>
+      </c>
+      <c r="D20">
+        <v>-0.03946115018188906</v>
+      </c>
+      <c r="E20">
+        <v>0.02423766896950297</v>
+      </c>
+      <c r="F20">
+        <v>-0.02346291510601516</v>
+      </c>
+      <c r="G20">
+        <v>-0.01341467271349909</v>
+      </c>
+      <c r="H20">
+        <v>0.05252040950264706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02411020658289611</v>
+        <v>-0.02408918976594684</v>
       </c>
       <c r="C21">
-        <v>-0.005291746989430282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01267605785373676</v>
+      </c>
+      <c r="D21">
+        <v>-0.03965646736587849</v>
+      </c>
+      <c r="E21">
+        <v>0.07617408409645353</v>
+      </c>
+      <c r="F21">
+        <v>0.01693356890293327</v>
+      </c>
+      <c r="G21">
+        <v>-0.007635069790138956</v>
+      </c>
+      <c r="H21">
+        <v>-0.05796958444491644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0720566671516555</v>
+        <v>-0.06745953665457144</v>
       </c>
       <c r="C22">
-        <v>0.06043529325270441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03867358641058342</v>
+      </c>
+      <c r="D22">
+        <v>-0.08662139733406758</v>
+      </c>
+      <c r="E22">
+        <v>0.6035468193776231</v>
+      </c>
+      <c r="F22">
+        <v>0.1347439158607704</v>
+      </c>
+      <c r="G22">
+        <v>0.04941704860027372</v>
+      </c>
+      <c r="H22">
+        <v>-0.1705278946862033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07303486813346109</v>
+        <v>-0.06806004790589736</v>
       </c>
       <c r="C23">
-        <v>0.05936499499213306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03738073783514414</v>
+      </c>
+      <c r="D23">
+        <v>-0.08758665162227729</v>
+      </c>
+      <c r="E23">
+        <v>0.6029440936812581</v>
+      </c>
+      <c r="F23">
+        <v>0.1339178954308731</v>
+      </c>
+      <c r="G23">
+        <v>0.04759306363828737</v>
+      </c>
+      <c r="H23">
+        <v>-0.1660003424233272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0697475420533364</v>
+        <v>-0.07922286260477859</v>
       </c>
       <c r="C24">
-        <v>0.0500826242603349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03210196097876398</v>
+      </c>
+      <c r="D24">
+        <v>-0.05963788077539355</v>
+      </c>
+      <c r="E24">
+        <v>0.01122262800069109</v>
+      </c>
+      <c r="F24">
+        <v>-0.03364500086563348</v>
+      </c>
+      <c r="G24">
+        <v>-0.00965410395089436</v>
+      </c>
+      <c r="H24">
+        <v>0.06570328417023982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07065822956784706</v>
+        <v>-0.07725365303123642</v>
       </c>
       <c r="C25">
-        <v>0.05613013539375362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03651816481204788</v>
+      </c>
+      <c r="D25">
+        <v>-0.05315942665044927</v>
+      </c>
+      <c r="E25">
+        <v>0.01348951951958519</v>
+      </c>
+      <c r="F25">
+        <v>-0.02845799228116631</v>
+      </c>
+      <c r="G25">
+        <v>-0.02082678836112243</v>
+      </c>
+      <c r="H25">
+        <v>0.06689852093306126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04592308530963291</v>
+        <v>-0.04758344781824052</v>
       </c>
       <c r="C26">
-        <v>0.01044372274328914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001147196931431487</v>
+      </c>
+      <c r="D26">
+        <v>-0.02015571758462739</v>
+      </c>
+      <c r="E26">
+        <v>0.04483011546270026</v>
+      </c>
+      <c r="F26">
+        <v>-0.02509758978107437</v>
+      </c>
+      <c r="G26">
+        <v>0.001380251589336476</v>
+      </c>
+      <c r="H26">
+        <v>0.06033946670276605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05677410049988998</v>
+        <v>-0.0672974469497945</v>
       </c>
       <c r="C28">
-        <v>0.07397689047544438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08395848595684863</v>
+      </c>
+      <c r="D28">
+        <v>0.3091411170064183</v>
+      </c>
+      <c r="E28">
+        <v>0.02670415929775552</v>
+      </c>
+      <c r="F28">
+        <v>-0.05652366142790179</v>
+      </c>
+      <c r="G28">
+        <v>-0.02279954786713758</v>
+      </c>
+      <c r="H28">
+        <v>-0.0362385053019474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04123045557138918</v>
+        <v>-0.0479897762930841</v>
       </c>
       <c r="C29">
-        <v>0.03171080662490249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02456587043168344</v>
+      </c>
+      <c r="D29">
+        <v>-0.004233586715557442</v>
+      </c>
+      <c r="E29">
+        <v>0.05154682748424931</v>
+      </c>
+      <c r="F29">
+        <v>-0.008407512288661595</v>
+      </c>
+      <c r="G29">
+        <v>-0.0004738339627968196</v>
+      </c>
+      <c r="H29">
+        <v>0.07952985461474804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1250801988707665</v>
+        <v>-0.132912000078166</v>
       </c>
       <c r="C30">
-        <v>0.09436379274407752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06318832767788134</v>
+      </c>
+      <c r="D30">
+        <v>-0.0735072835053194</v>
+      </c>
+      <c r="E30">
+        <v>0.07817724285242307</v>
+      </c>
+      <c r="F30">
+        <v>-0.001302424989062499</v>
+      </c>
+      <c r="G30">
+        <v>-0.06308498420605603</v>
+      </c>
+      <c r="H30">
+        <v>-0.02852876935203695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04236347735845539</v>
+        <v>-0.04846363928533991</v>
       </c>
       <c r="C31">
-        <v>0.01968162256098671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01092373341770492</v>
+      </c>
+      <c r="D31">
+        <v>-0.02477120968343968</v>
+      </c>
+      <c r="E31">
+        <v>0.02727168371092948</v>
+      </c>
+      <c r="F31">
+        <v>-0.01616035520837078</v>
+      </c>
+      <c r="G31">
+        <v>0.01764132126531484</v>
+      </c>
+      <c r="H31">
+        <v>0.06930896135533761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03777076285062954</v>
+        <v>-0.03814582673411456</v>
       </c>
       <c r="C32">
-        <v>0.0220807307704434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01531397018822198</v>
+      </c>
+      <c r="D32">
+        <v>-0.009366870331813647</v>
+      </c>
+      <c r="E32">
+        <v>0.07120912520105806</v>
+      </c>
+      <c r="F32">
+        <v>0.0003359894976626318</v>
+      </c>
+      <c r="G32">
+        <v>-0.03897632152354649</v>
+      </c>
+      <c r="H32">
+        <v>0.0597386310119477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08076380161601845</v>
+        <v>-0.09390636899742401</v>
       </c>
       <c r="C33">
-        <v>0.04336301139930219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02546075182763818</v>
+      </c>
+      <c r="D33">
+        <v>-0.05247503852316091</v>
+      </c>
+      <c r="E33">
+        <v>0.01650074149914719</v>
+      </c>
+      <c r="F33">
+        <v>-0.002192078559520817</v>
+      </c>
+      <c r="G33">
+        <v>0.007974523131504761</v>
+      </c>
+      <c r="H33">
+        <v>0.07116305966640096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05558868864711239</v>
+        <v>-0.06113628724474139</v>
       </c>
       <c r="C34">
-        <v>0.02805631043265708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01246310246912772</v>
+      </c>
+      <c r="D34">
+        <v>-0.05366682981455444</v>
+      </c>
+      <c r="E34">
+        <v>0.00667091923966888</v>
+      </c>
+      <c r="F34">
+        <v>-0.01601552965270496</v>
+      </c>
+      <c r="G34">
+        <v>-0.008014512495262367</v>
+      </c>
+      <c r="H34">
+        <v>0.05564837096139139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03759178737758917</v>
+        <v>-0.04038870697937458</v>
       </c>
       <c r="C35">
-        <v>0.00903945158363657</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.001901358603225862</v>
+      </c>
+      <c r="D35">
+        <v>-0.005865608358052322</v>
+      </c>
+      <c r="E35">
+        <v>0.02597239168530008</v>
+      </c>
+      <c r="F35">
+        <v>0.008948798872796695</v>
+      </c>
+      <c r="G35">
+        <v>0.007824679856513132</v>
+      </c>
+      <c r="H35">
+        <v>0.03263642960744525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02039740617988789</v>
+        <v>-0.02672554633810692</v>
       </c>
       <c r="C36">
-        <v>0.01702570280210473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0131314387229192</v>
+      </c>
+      <c r="D36">
+        <v>-0.01356105902384126</v>
+      </c>
+      <c r="E36">
+        <v>0.04172306688764093</v>
+      </c>
+      <c r="F36">
+        <v>-0.02051162447949154</v>
+      </c>
+      <c r="G36">
+        <v>0.006177847589299467</v>
+      </c>
+      <c r="H36">
+        <v>0.04967818475722939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04055261609879389</v>
+        <v>-0.04360322540925709</v>
       </c>
       <c r="C38">
-        <v>0.004029534938963329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002697305012231764</v>
+      </c>
+      <c r="D38">
+        <v>-0.01679246547918138</v>
+      </c>
+      <c r="E38">
+        <v>0.05786170753031115</v>
+      </c>
+      <c r="F38">
+        <v>0.00908877307706629</v>
+      </c>
+      <c r="G38">
+        <v>-0.01279750929212759</v>
+      </c>
+      <c r="H38">
+        <v>0.02109880407891141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09403686575459129</v>
+        <v>-0.1046347693658799</v>
       </c>
       <c r="C39">
-        <v>0.07408582660459577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04953108378988717</v>
+      </c>
+      <c r="D39">
+        <v>-0.06452103088876399</v>
+      </c>
+      <c r="E39">
+        <v>-0.003100704000023419</v>
+      </c>
+      <c r="F39">
+        <v>-0.008622580226069907</v>
+      </c>
+      <c r="G39">
+        <v>-0.03976914860897453</v>
+      </c>
+      <c r="H39">
+        <v>0.06940052384717013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07304116429640845</v>
+        <v>-0.07133563626848034</v>
       </c>
       <c r="C40">
-        <v>0.04064481439393864</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01976132063712947</v>
+      </c>
+      <c r="D40">
+        <v>-0.006094803556884266</v>
+      </c>
+      <c r="E40">
+        <v>0.02509621096453749</v>
+      </c>
+      <c r="F40">
+        <v>0.04779454910308697</v>
+      </c>
+      <c r="G40">
+        <v>-0.04379831730960962</v>
+      </c>
+      <c r="H40">
+        <v>-0.08281865763017025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04023729405308897</v>
+        <v>-0.04357969859484193</v>
       </c>
       <c r="C41">
-        <v>0.006433420812049575</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001630329322337332</v>
+      </c>
+      <c r="D41">
+        <v>-0.03462220185919137</v>
+      </c>
+      <c r="E41">
+        <v>0.007635887543288447</v>
+      </c>
+      <c r="F41">
+        <v>0.01069714355734561</v>
+      </c>
+      <c r="G41">
+        <v>-0.01475827798242095</v>
+      </c>
+      <c r="H41">
+        <v>0.03433018109833882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04660699198359783</v>
+        <v>-0.05742237488900712</v>
       </c>
       <c r="C43">
-        <v>0.02562937099891057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01696662288255779</v>
+      </c>
+      <c r="D43">
+        <v>-0.02726735039689225</v>
+      </c>
+      <c r="E43">
+        <v>0.01832387147661538</v>
+      </c>
+      <c r="F43">
+        <v>-0.01268936720153141</v>
+      </c>
+      <c r="G43">
+        <v>0.007817501406966349</v>
+      </c>
+      <c r="H43">
+        <v>0.05212303414574304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09471457946039158</v>
+        <v>-0.09370995835971686</v>
       </c>
       <c r="C44">
-        <v>0.09553701448673731</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06401957507619076</v>
+      </c>
+      <c r="D44">
+        <v>-0.065735908509404</v>
+      </c>
+      <c r="E44">
+        <v>0.08613329155541195</v>
+      </c>
+      <c r="F44">
+        <v>-0.05365391497507854</v>
+      </c>
+      <c r="G44">
+        <v>-0.02423431404302617</v>
+      </c>
+      <c r="H44">
+        <v>-0.0002291018216643409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02480032472449309</v>
+        <v>-0.03177412389697595</v>
       </c>
       <c r="C46">
-        <v>0.01292267264011194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009021876030215002</v>
+      </c>
+      <c r="D46">
+        <v>-0.03268931753763872</v>
+      </c>
+      <c r="E46">
+        <v>0.02370404427880558</v>
+      </c>
+      <c r="F46">
+        <v>-0.01911806097886217</v>
+      </c>
+      <c r="G46">
+        <v>-0.007990247752716312</v>
+      </c>
+      <c r="H46">
+        <v>0.03544191700029576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02748779071238331</v>
+        <v>-0.03606975223125252</v>
       </c>
       <c r="C47">
-        <v>0.0249798421486018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.02021730399045422</v>
+      </c>
+      <c r="D47">
+        <v>-0.01692336391845036</v>
+      </c>
+      <c r="E47">
+        <v>0.04986893051219139</v>
+      </c>
+      <c r="F47">
+        <v>-0.01841746313499626</v>
+      </c>
+      <c r="G47">
+        <v>0.04034849648964968</v>
+      </c>
+      <c r="H47">
+        <v>0.02269573087723487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03112115432425388</v>
+        <v>-0.0361460272873621</v>
       </c>
       <c r="C48">
-        <v>0.01561068261427625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.008655378658170471</v>
+      </c>
+      <c r="D48">
+        <v>-0.02001916766781105</v>
+      </c>
+      <c r="E48">
+        <v>0.04274642660178207</v>
+      </c>
+      <c r="F48">
+        <v>-0.006705563740369931</v>
+      </c>
+      <c r="G48">
+        <v>-0.01376894756048757</v>
+      </c>
+      <c r="H48">
+        <v>0.04830516413972923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1625221729928388</v>
+        <v>-0.1913694923499496</v>
       </c>
       <c r="C49">
-        <v>0.0644086452160882</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03512209702701529</v>
+      </c>
+      <c r="D49">
+        <v>-0.02764873411381301</v>
+      </c>
+      <c r="E49">
+        <v>-0.1450428287161278</v>
+      </c>
+      <c r="F49">
+        <v>-0.05383105083856199</v>
+      </c>
+      <c r="G49">
+        <v>0.07242316563662249</v>
+      </c>
+      <c r="H49">
+        <v>-0.2270937896162812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0371595280523997</v>
+        <v>-0.04444820473453598</v>
       </c>
       <c r="C50">
-        <v>0.02282682079971637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0155938388311848</v>
+      </c>
+      <c r="D50">
+        <v>-0.03275373933053719</v>
+      </c>
+      <c r="E50">
+        <v>0.05055570441659734</v>
+      </c>
+      <c r="F50">
+        <v>-0.01717861785544218</v>
+      </c>
+      <c r="G50">
+        <v>0.01359728176822733</v>
+      </c>
+      <c r="H50">
+        <v>0.06659506551490198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.026155157758756</v>
+        <v>-0.02931310938479662</v>
       </c>
       <c r="C51">
-        <v>0.01062790759555221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.006085618455930049</v>
+      </c>
+      <c r="D51">
+        <v>-0.02243400053025012</v>
+      </c>
+      <c r="E51">
+        <v>0.01456008126774989</v>
+      </c>
+      <c r="F51">
+        <v>-0.01340803805122523</v>
+      </c>
+      <c r="G51">
+        <v>-0.002124404717732625</v>
+      </c>
+      <c r="H51">
+        <v>-0.006670871550531766</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1514977733375988</v>
+        <v>-0.1626629996816119</v>
       </c>
       <c r="C53">
-        <v>0.08281713205323316</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05268059304904178</v>
+      </c>
+      <c r="D53">
+        <v>-0.02082844300003064</v>
+      </c>
+      <c r="E53">
+        <v>-0.02656342212494974</v>
+      </c>
+      <c r="F53">
+        <v>-0.009581967895142429</v>
+      </c>
+      <c r="G53">
+        <v>-0.005203722351090256</v>
+      </c>
+      <c r="H53">
+        <v>0.1535661564712242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05576710622697623</v>
+        <v>-0.0574496024384786</v>
       </c>
       <c r="C54">
-        <v>0.024463964044707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01163783462053216</v>
+      </c>
+      <c r="D54">
+        <v>-0.01915507856273615</v>
+      </c>
+      <c r="E54">
+        <v>0.05172240216237228</v>
+      </c>
+      <c r="F54">
+        <v>-0.01167126779349581</v>
+      </c>
+      <c r="G54">
+        <v>-0.01702652711739487</v>
+      </c>
+      <c r="H54">
+        <v>0.05507670398861329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09929341241070122</v>
+        <v>-0.103596910457527</v>
       </c>
       <c r="C55">
-        <v>0.05729635470866108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03590868794051066</v>
+      </c>
+      <c r="D55">
+        <v>-0.02550915114613661</v>
+      </c>
+      <c r="E55">
+        <v>0.01369753100129332</v>
+      </c>
+      <c r="F55">
+        <v>-0.01567861489422143</v>
+      </c>
+      <c r="G55">
+        <v>-0.01490036902507931</v>
+      </c>
+      <c r="H55">
+        <v>0.1426362114536327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1470078329141119</v>
+        <v>-0.1604517368394503</v>
       </c>
       <c r="C56">
-        <v>0.09397565549118568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06368208599681685</v>
+      </c>
+      <c r="D56">
+        <v>-0.01988313915290868</v>
+      </c>
+      <c r="E56">
+        <v>-0.03264435119023092</v>
+      </c>
+      <c r="F56">
+        <v>-0.02613786412961344</v>
+      </c>
+      <c r="G56">
+        <v>0.0004685851460593558</v>
+      </c>
+      <c r="H56">
+        <v>0.1583096022798759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1204662209257923</v>
+        <v>-0.09766478656391582</v>
       </c>
       <c r="C58">
-        <v>0.004900751825917377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03543893835618964</v>
+      </c>
+      <c r="D58">
+        <v>-0.04358657261543036</v>
+      </c>
+      <c r="E58">
+        <v>0.1556805814321878</v>
+      </c>
+      <c r="F58">
+        <v>-0.02236188891301105</v>
+      </c>
+      <c r="G58">
+        <v>0.06596597576768047</v>
+      </c>
+      <c r="H58">
+        <v>-0.1854574890175476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1164966156272674</v>
+        <v>-0.1397225674545033</v>
       </c>
       <c r="C59">
-        <v>0.07984172189430991</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08734794965597621</v>
+      </c>
+      <c r="D59">
+        <v>0.3600334626291559</v>
+      </c>
+      <c r="E59">
+        <v>0.03194806092937347</v>
+      </c>
+      <c r="F59">
+        <v>-0.01788793303812068</v>
+      </c>
+      <c r="G59">
+        <v>0.04990494416771579</v>
+      </c>
+      <c r="H59">
+        <v>-0.008876753125867064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2007205613576939</v>
+        <v>-0.2301638357510422</v>
       </c>
       <c r="C60">
-        <v>0.1039739934010319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06663367309057051</v>
+      </c>
+      <c r="D60">
+        <v>-0.03988648089745919</v>
+      </c>
+      <c r="E60">
+        <v>-0.09140932474540356</v>
+      </c>
+      <c r="F60">
+        <v>-0.05672197414174843</v>
+      </c>
+      <c r="G60">
+        <v>-0.01147378294270003</v>
+      </c>
+      <c r="H60">
+        <v>-0.1729959722487063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08009535841363644</v>
+        <v>-0.08807977529513139</v>
       </c>
       <c r="C61">
-        <v>0.05085848180205169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03364928942173882</v>
+      </c>
+      <c r="D61">
+        <v>-0.04482743932558009</v>
+      </c>
+      <c r="E61">
+        <v>-0.001564955476884997</v>
+      </c>
+      <c r="F61">
+        <v>-0.004298894767046126</v>
+      </c>
+      <c r="G61">
+        <v>-0.005462480787639001</v>
+      </c>
+      <c r="H61">
+        <v>0.0731621271152651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1287709692540705</v>
+        <v>-0.1401890636701433</v>
       </c>
       <c r="C62">
-        <v>0.07049420274071792</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04322518452575316</v>
+      </c>
+      <c r="D62">
+        <v>-0.02727498171349078</v>
+      </c>
+      <c r="E62">
+        <v>-0.058980907097117</v>
+      </c>
+      <c r="F62">
+        <v>-0.004506980041061696</v>
+      </c>
+      <c r="G62">
+        <v>-0.03783985608360117</v>
+      </c>
+      <c r="H62">
+        <v>0.1595410852908023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05314731047848527</v>
+        <v>-0.05103505712421685</v>
       </c>
       <c r="C63">
-        <v>0.02626247062896341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01291714436937107</v>
+      </c>
+      <c r="D63">
+        <v>-0.02126449502366366</v>
+      </c>
+      <c r="E63">
+        <v>0.05428981008366166</v>
+      </c>
+      <c r="F63">
+        <v>0.00166358497199371</v>
+      </c>
+      <c r="G63">
+        <v>-0.03757876522618208</v>
+      </c>
+      <c r="H63">
+        <v>0.06949762613844208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1089548440565758</v>
+        <v>-0.1105063166747671</v>
       </c>
       <c r="C64">
-        <v>0.02906764101881475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004668928362536772</v>
+      </c>
+      <c r="D64">
+        <v>-0.039787854251253</v>
+      </c>
+      <c r="E64">
+        <v>0.03175003756142723</v>
+      </c>
+      <c r="F64">
+        <v>-0.05063847117089734</v>
+      </c>
+      <c r="G64">
+        <v>-0.04993515914908234</v>
+      </c>
+      <c r="H64">
+        <v>0.06306843024575158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1201557727560425</v>
+        <v>-0.1268107174692649</v>
       </c>
       <c r="C65">
-        <v>0.06085879911859311</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03722413741175346</v>
+      </c>
+      <c r="D65">
+        <v>-0.003531578254741553</v>
+      </c>
+      <c r="E65">
+        <v>-0.003445829008408036</v>
+      </c>
+      <c r="F65">
+        <v>-0.06699779758505392</v>
+      </c>
+      <c r="G65">
+        <v>-0.05363527997130184</v>
+      </c>
+      <c r="H65">
+        <v>-0.09318318649137995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1447979408975993</v>
+        <v>-0.1559434766127874</v>
       </c>
       <c r="C66">
-        <v>0.078419245298871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04436647230907607</v>
+      </c>
+      <c r="D66">
+        <v>-0.100037370349802</v>
+      </c>
+      <c r="E66">
+        <v>-0.03577614464111185</v>
+      </c>
+      <c r="F66">
+        <v>-0.01242588816365158</v>
+      </c>
+      <c r="G66">
+        <v>-0.05138772015000966</v>
+      </c>
+      <c r="H66">
+        <v>0.1513350230156114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07362981452515807</v>
+        <v>-0.08280917165324436</v>
       </c>
       <c r="C67">
-        <v>0.01624321612115289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004040485455668165</v>
+      </c>
+      <c r="D67">
+        <v>-0.02956775806639358</v>
+      </c>
+      <c r="E67">
+        <v>0.02543785688452061</v>
+      </c>
+      <c r="F67">
+        <v>-0.01285060644940781</v>
+      </c>
+      <c r="G67">
+        <v>0.009197047368133164</v>
+      </c>
+      <c r="H67">
+        <v>0.02218081044259394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05944538443517589</v>
+        <v>-0.06083996025150928</v>
       </c>
       <c r="C68">
-        <v>0.04992682883875188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05723775130652468</v>
+      </c>
+      <c r="D68">
+        <v>0.2664641791234466</v>
+      </c>
+      <c r="E68">
+        <v>0.04234651056632191</v>
+      </c>
+      <c r="F68">
+        <v>-0.02052796507562176</v>
+      </c>
+      <c r="G68">
+        <v>0.01593590918288433</v>
+      </c>
+      <c r="H68">
+        <v>0.009799970464315312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05229362839381555</v>
+        <v>-0.052517840789074</v>
       </c>
       <c r="C69">
-        <v>0.01987816887085923</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005280714553316112</v>
+      </c>
+      <c r="D69">
+        <v>-0.01787776037304977</v>
+      </c>
+      <c r="E69">
+        <v>0.02548076611635082</v>
+      </c>
+      <c r="F69">
+        <v>0.001980999468186101</v>
+      </c>
+      <c r="G69">
+        <v>0.01218278275665967</v>
+      </c>
+      <c r="H69">
+        <v>0.05113820518858247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005025122741599897</v>
+        <v>-0.02661738627399874</v>
       </c>
       <c r="C70">
-        <v>-0.004547129008902556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0003331448566428759</v>
+      </c>
+      <c r="D70">
+        <v>-0.0008664770527365</v>
+      </c>
+      <c r="E70">
+        <v>-0.02859560206041923</v>
+      </c>
+      <c r="F70">
+        <v>-0.02591752483567453</v>
+      </c>
+      <c r="G70">
+        <v>0.02468126202117883</v>
+      </c>
+      <c r="H70">
+        <v>-0.05466703396574807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0607334391302603</v>
+        <v>-0.06406734146547238</v>
       </c>
       <c r="C71">
-        <v>0.04975865789990355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05914108379983891</v>
+      </c>
+      <c r="D71">
+        <v>0.2945511731524331</v>
+      </c>
+      <c r="E71">
+        <v>0.03361823519628733</v>
+      </c>
+      <c r="F71">
+        <v>-0.05257498975606858</v>
+      </c>
+      <c r="G71">
+        <v>0.002692501761135209</v>
+      </c>
+      <c r="H71">
+        <v>0.01969949346476892</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.139603550805035</v>
+        <v>-0.1505379778508622</v>
       </c>
       <c r="C72">
-        <v>0.06583693343356264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03735775456143475</v>
+      </c>
+      <c r="D72">
+        <v>0.01227179929293212</v>
+      </c>
+      <c r="E72">
+        <v>-0.09609843983279505</v>
+      </c>
+      <c r="F72">
+        <v>0.1670447593109539</v>
+      </c>
+      <c r="G72">
+        <v>-0.1186555309274182</v>
+      </c>
+      <c r="H72">
+        <v>0.01512562537104144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2640847009119447</v>
+        <v>-0.2839451343575765</v>
       </c>
       <c r="C73">
-        <v>0.1152568685418319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05042689019490069</v>
+      </c>
+      <c r="D73">
+        <v>-0.09919168425722034</v>
+      </c>
+      <c r="E73">
+        <v>-0.2308306110651571</v>
+      </c>
+      <c r="F73">
+        <v>-0.08888386093947426</v>
+      </c>
+      <c r="G73">
+        <v>0.21639132672113</v>
+      </c>
+      <c r="H73">
+        <v>-0.5135533384680124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0796589282927926</v>
+        <v>-0.09212986259122997</v>
       </c>
       <c r="C74">
-        <v>0.07949967485974156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0593434530760828</v>
+      </c>
+      <c r="D74">
+        <v>-0.03097458103743158</v>
+      </c>
+      <c r="E74">
+        <v>-0.002830442292141304</v>
+      </c>
+      <c r="F74">
+        <v>0.01403141412185243</v>
+      </c>
+      <c r="G74">
+        <v>0.02933990689510816</v>
+      </c>
+      <c r="H74">
+        <v>0.1196728110496545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09496322461667654</v>
+        <v>-0.1012540617889711</v>
       </c>
       <c r="C75">
-        <v>0.05420187709500007</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02722586127962841</v>
+      </c>
+      <c r="D75">
+        <v>-0.01260296542605958</v>
+      </c>
+      <c r="E75">
+        <v>0.0003022784311297097</v>
+      </c>
+      <c r="F75">
+        <v>-0.03738624563497878</v>
+      </c>
+      <c r="G75">
+        <v>0.01031837650427773</v>
+      </c>
+      <c r="H75">
+        <v>0.118050263542668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1283432321950525</v>
+        <v>-0.1391315841803608</v>
       </c>
       <c r="C76">
-        <v>0.0855362060278605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05620353837940043</v>
+      </c>
+      <c r="D76">
+        <v>-0.05327378145213799</v>
+      </c>
+      <c r="E76">
+        <v>0.02226033427888684</v>
+      </c>
+      <c r="F76">
+        <v>-0.04576889619602771</v>
+      </c>
+      <c r="G76">
+        <v>-0.007306500774247506</v>
+      </c>
+      <c r="H76">
+        <v>0.1528678552500859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.119268990668289</v>
+        <v>-0.1132408605030232</v>
       </c>
       <c r="C77">
-        <v>0.02532948435189031</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003817062124502804</v>
+      </c>
+      <c r="D77">
+        <v>-0.01404351812791524</v>
+      </c>
+      <c r="E77">
+        <v>-0.01735162716575386</v>
+      </c>
+      <c r="F77">
+        <v>-0.1653408275022187</v>
+      </c>
+      <c r="G77">
+        <v>-0.872949019359662</v>
+      </c>
+      <c r="H77">
+        <v>-0.229221927119063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09474963335488332</v>
+        <v>-0.1322381006265697</v>
       </c>
       <c r="C78">
-        <v>0.04110011985053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03200623019443435</v>
+      </c>
+      <c r="D78">
+        <v>-0.09285686501671941</v>
+      </c>
+      <c r="E78">
+        <v>0.05510919821977116</v>
+      </c>
+      <c r="F78">
+        <v>-0.03245753902405965</v>
+      </c>
+      <c r="G78">
+        <v>-0.04113270880774332</v>
+      </c>
+      <c r="H78">
+        <v>-0.07990005826936464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1468827389675744</v>
+        <v>-0.1528874299924566</v>
       </c>
       <c r="C79">
-        <v>0.08378105227430949</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04634601348138797</v>
+      </c>
+      <c r="D79">
+        <v>-0.02876449575055168</v>
+      </c>
+      <c r="E79">
+        <v>-0.01435379544551123</v>
+      </c>
+      <c r="F79">
+        <v>-0.009495602802306534</v>
+      </c>
+      <c r="G79">
+        <v>0.01514500180574341</v>
+      </c>
+      <c r="H79">
+        <v>0.1681916142545028</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04224321938433256</v>
+        <v>-0.04129196372034442</v>
       </c>
       <c r="C80">
-        <v>0.0151919987461033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005431279692828718</v>
+      </c>
+      <c r="D80">
+        <v>-0.02181885189571059</v>
+      </c>
+      <c r="E80">
+        <v>-0.008710880994364047</v>
+      </c>
+      <c r="F80">
+        <v>0.0162057286973885</v>
+      </c>
+      <c r="G80">
+        <v>0.03483214174015046</v>
+      </c>
+      <c r="H80">
+        <v>0.03677072136458546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1177588421846099</v>
+        <v>-0.1220545546673204</v>
       </c>
       <c r="C81">
-        <v>0.06681319456598925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.0368025831394066</v>
+      </c>
+      <c r="D81">
+        <v>-0.02565011729649521</v>
+      </c>
+      <c r="E81">
+        <v>0.0216817331677574</v>
+      </c>
+      <c r="F81">
+        <v>-0.02089555965457844</v>
+      </c>
+      <c r="G81">
+        <v>0.03244604121936782</v>
+      </c>
+      <c r="H81">
+        <v>0.1726532021646502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1269733676068363</v>
+        <v>-0.1301303647762861</v>
       </c>
       <c r="C82">
-        <v>0.0796938786881753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0481485511468981</v>
+      </c>
+      <c r="D82">
+        <v>-0.03060084386605836</v>
+      </c>
+      <c r="E82">
+        <v>-0.01466544468463385</v>
+      </c>
+      <c r="F82">
+        <v>-0.0515178675629107</v>
+      </c>
+      <c r="G82">
+        <v>0.02941067043574709</v>
+      </c>
+      <c r="H82">
+        <v>0.1872858622440695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07825546057771672</v>
+        <v>-0.08693180897245094</v>
       </c>
       <c r="C83">
-        <v>-0.001706860068375708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01921186181183911</v>
+      </c>
+      <c r="D83">
+        <v>-0.04275100076539988</v>
+      </c>
+      <c r="E83">
+        <v>0.00699022211992016</v>
+      </c>
+      <c r="F83">
+        <v>-0.0684574976338025</v>
+      </c>
+      <c r="G83">
+        <v>0.09879297524421969</v>
+      </c>
+      <c r="H83">
+        <v>-0.05706736450043949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02929092626208726</v>
+        <v>-0.03965325250846684</v>
       </c>
       <c r="C84">
-        <v>0.02540518913756493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01985297749152291</v>
+      </c>
+      <c r="D84">
+        <v>-0.03063373222517499</v>
+      </c>
+      <c r="E84">
+        <v>0.03022644435472677</v>
+      </c>
+      <c r="F84">
+        <v>0.04570054007625381</v>
+      </c>
+      <c r="G84">
+        <v>0.05409410140477126</v>
+      </c>
+      <c r="H84">
+        <v>0.02514966838729334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.118314522787631</v>
+        <v>-0.119226607660363</v>
       </c>
       <c r="C85">
-        <v>0.06170069211932879</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03025069517265891</v>
+      </c>
+      <c r="D85">
+        <v>-0.02896004840920497</v>
+      </c>
+      <c r="E85">
+        <v>0.01648573090107345</v>
+      </c>
+      <c r="F85">
+        <v>-0.04107974680263807</v>
+      </c>
+      <c r="G85">
+        <v>0.007068623087265946</v>
+      </c>
+      <c r="H85">
+        <v>0.146022371247805</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05068572492799589</v>
+        <v>-0.05708590371327592</v>
       </c>
       <c r="C86">
-        <v>0.03106787068011538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01926114406429145</v>
+      </c>
+      <c r="D86">
+        <v>-0.02267686708387955</v>
+      </c>
+      <c r="E86">
+        <v>0.04947636237274422</v>
+      </c>
+      <c r="F86">
+        <v>-0.03282925142193038</v>
+      </c>
+      <c r="G86">
+        <v>0.006159092478545346</v>
+      </c>
+      <c r="H86">
+        <v>0.01430756929373262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1205590790448935</v>
+        <v>-0.1218126008826271</v>
       </c>
       <c r="C87">
-        <v>0.07026226043393238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03305404104910949</v>
+      </c>
+      <c r="D87">
+        <v>-0.07534197639534801</v>
+      </c>
+      <c r="E87">
+        <v>0.01090526613247018</v>
+      </c>
+      <c r="F87">
+        <v>-0.0069402113865505</v>
+      </c>
+      <c r="G87">
+        <v>-0.1057028619355166</v>
+      </c>
+      <c r="H87">
+        <v>-0.02474220701964475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05345571930391505</v>
+        <v>-0.06024644181060602</v>
       </c>
       <c r="C88">
-        <v>0.0317262588970712</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01991207257115349</v>
+      </c>
+      <c r="D88">
+        <v>-0.02744107738882098</v>
+      </c>
+      <c r="E88">
+        <v>0.02017780323076068</v>
+      </c>
+      <c r="F88">
+        <v>-0.007419258486058259</v>
+      </c>
+      <c r="G88">
+        <v>-0.01462847509804827</v>
+      </c>
+      <c r="H88">
+        <v>0.05921245593717025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08334228549688355</v>
+        <v>-0.09630650935605756</v>
       </c>
       <c r="C89">
-        <v>0.06654659001385016</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0781085367621862</v>
+      </c>
+      <c r="D89">
+        <v>0.3365902026787718</v>
+      </c>
+      <c r="E89">
+        <v>0.06832355307551441</v>
+      </c>
+      <c r="F89">
+        <v>-0.0867747899969251</v>
+      </c>
+      <c r="G89">
+        <v>0.02282089367525266</v>
+      </c>
+      <c r="H89">
+        <v>0.00643690010234585</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07282142713118875</v>
+        <v>-0.08204728790679905</v>
       </c>
       <c r="C90">
-        <v>0.05906226431526372</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.0681762905617615</v>
+      </c>
+      <c r="D90">
+        <v>0.3073401217516112</v>
+      </c>
+      <c r="E90">
+        <v>0.06771436573544497</v>
+      </c>
+      <c r="F90">
+        <v>-0.0170945266298831</v>
+      </c>
+      <c r="G90">
+        <v>0.005041055671145937</v>
+      </c>
+      <c r="H90">
+        <v>0.01235580833987188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08406999161347919</v>
+        <v>-0.08944133324478788</v>
       </c>
       <c r="C91">
-        <v>0.05503610830963905</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03301344219204826</v>
+      </c>
+      <c r="D91">
+        <v>-0.03132447395288261</v>
+      </c>
+      <c r="E91">
+        <v>0.008749578746391554</v>
+      </c>
+      <c r="F91">
+        <v>-0.005305325809172748</v>
+      </c>
+      <c r="G91">
+        <v>0.04547074573741899</v>
+      </c>
+      <c r="H91">
+        <v>0.07631823810356504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07909204076555895</v>
+        <v>-0.08551493003756805</v>
       </c>
       <c r="C92">
-        <v>0.07636299321961869</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08396772934333616</v>
+      </c>
+      <c r="D92">
+        <v>0.3432764707887028</v>
+      </c>
+      <c r="E92">
+        <v>0.04723669587487578</v>
+      </c>
+      <c r="F92">
+        <v>-0.04052570302104028</v>
+      </c>
+      <c r="G92">
+        <v>-0.002655144398369256</v>
+      </c>
+      <c r="H92">
+        <v>0.01849400167016698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06550636602910205</v>
+        <v>-0.07974483500099215</v>
       </c>
       <c r="C93">
-        <v>0.06378946235403919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07799904907858098</v>
+      </c>
+      <c r="D93">
+        <v>0.3057065155661586</v>
+      </c>
+      <c r="E93">
+        <v>0.03715504035557392</v>
+      </c>
+      <c r="F93">
+        <v>-0.05297439998244746</v>
+      </c>
+      <c r="G93">
+        <v>-0.006005994407083948</v>
+      </c>
+      <c r="H93">
+        <v>-0.009824324117200555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1336360769047569</v>
+        <v>-0.1285232305569039</v>
       </c>
       <c r="C94">
-        <v>0.05949580167821739</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02108300243030889</v>
+      </c>
+      <c r="D94">
+        <v>-0.0478976899314957</v>
+      </c>
+      <c r="E94">
+        <v>-0.01145388081465865</v>
+      </c>
+      <c r="F94">
+        <v>-0.02246523372812542</v>
+      </c>
+      <c r="G94">
+        <v>0.03636144626275774</v>
+      </c>
+      <c r="H94">
+        <v>0.113618741849943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1182420377770435</v>
+        <v>-0.1278237266211366</v>
       </c>
       <c r="C95">
-        <v>0.0395756789536528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009778779367816943</v>
+      </c>
+      <c r="D95">
+        <v>-0.05655523240408563</v>
+      </c>
+      <c r="E95">
+        <v>-0.001909420032063644</v>
+      </c>
+      <c r="F95">
+        <v>-0.04089600903406226</v>
+      </c>
+      <c r="G95">
+        <v>0.02098978935083853</v>
+      </c>
+      <c r="H95">
+        <v>-0.02401081305514718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2036152822469075</v>
+        <v>-0.2131993026797169</v>
       </c>
       <c r="C97">
-        <v>0.04983994464846352</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01113912528559356</v>
+      </c>
+      <c r="D97">
+        <v>0.08999191243976103</v>
+      </c>
+      <c r="E97">
+        <v>-0.1659537956500095</v>
+      </c>
+      <c r="F97">
+        <v>0.9029728275285482</v>
+      </c>
+      <c r="G97">
+        <v>-0.1083782421717548</v>
+      </c>
+      <c r="H97">
+        <v>-0.02105156920992044</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2442373614784452</v>
+        <v>-0.2722394083590949</v>
       </c>
       <c r="C98">
-        <v>0.08638349817904263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03670683418977688</v>
+      </c>
+      <c r="D98">
+        <v>-0.06430887940765304</v>
+      </c>
+      <c r="E98">
+        <v>-0.1634186562863099</v>
+      </c>
+      <c r="F98">
+        <v>-0.04937723998918776</v>
+      </c>
+      <c r="G98">
+        <v>0.2836092291809237</v>
+      </c>
+      <c r="H98">
+        <v>-0.1927629631243603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4643449648890121</v>
+        <v>-0.2840438084232887</v>
       </c>
       <c r="C99">
-        <v>-0.8711484869821334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9367389927761944</v>
+      </c>
+      <c r="D99">
+        <v>0.1279119838046263</v>
+      </c>
+      <c r="E99">
+        <v>0.05911443755463077</v>
+      </c>
+      <c r="F99">
+        <v>-0.04642976160059317</v>
+      </c>
+      <c r="G99">
+        <v>0.01365619378029757</v>
+      </c>
+      <c r="H99">
+        <v>0.06010703155674352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04129802072077365</v>
+        <v>-0.0480895456059969</v>
       </c>
       <c r="C101">
-        <v>0.03169140582768915</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02463954144939063</v>
+      </c>
+      <c r="D101">
+        <v>-0.004741165761497295</v>
+      </c>
+      <c r="E101">
+        <v>0.05072497776039388</v>
+      </c>
+      <c r="F101">
+        <v>-0.007814202891667768</v>
+      </c>
+      <c r="G101">
+        <v>-0.0003106429570364284</v>
+      </c>
+      <c r="H101">
+        <v>0.07893163921246886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
